--- a/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_삼국시대_연도(왕)_통일신라_연도별모음_문제.xlsx
+++ b/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_삼국시대_연도(왕)_통일신라_연도별모음_문제.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,14 +553,64 @@
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20221206</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>09</t>
+      <c r="D5" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ㄱ. 통일신라 독서삼품과 실시 
+ㄴ. 궁예 후고구려 건국 
+ㄷ. 통일신라 불국사 석굴암 건립</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20221207</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ㄱ. 통일신라 대공의 난 발발 
+ㄴ. 통일신라 사치 금지령 발표 
+ㄷ. 신라 청주 거로현을 국학생의 녹읍으로 사용</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄷㄴ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20221207</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
